--- a/Logiz.Radar/obj/Release/netcoreapp2.2/PubTmp/Out/wwwroot/template/logiz.radar.test-report.xlsx
+++ b/Logiz.Radar/obj/Release/netcoreapp2.2/PubTmp/Out/wwwroot/template/logiz.radar.test-report.xlsx
@@ -12,7 +12,7 @@
     <sheet name="PD" sheetId="5" r:id="rId3"/>
     <sheet name="PA" sheetId="6" r:id="rId4"/>
     <sheet name="RS" sheetId="7" r:id="rId5"/>
-    <sheet name="RC" sheetId="3" r:id="rId6"/>
+    <sheet name="RW" sheetId="3" r:id="rId6"/>
     <sheet name="Note" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -108,9 +108,6 @@
     <t>Tester Name</t>
   </si>
   <si>
-    <t>Current Resource Workload</t>
-  </si>
-  <si>
     <t>Remaining Working Days</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   </si>
   <si>
     <t>Total Planned Days</t>
+  </si>
+  <si>
+    <t>Resource Workload</t>
   </si>
 </sst>
 </file>
@@ -938,13 +938,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>8</v>
@@ -993,7 +993,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.81640625" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.26953125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" style="20" bestFit="1" customWidth="1"/>
@@ -1005,7 +1005,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -1022,13 +1022,13 @@
         <v>23</v>
       </c>
       <c r="D3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="18" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>30</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>8</v>
